--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.05.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.05.xlsx
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.85840707964601</v>
+        <v>91.47492625368731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1935624925663433</v>
+        <v>0.2596804941320442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9185840707964601</v>
+        <v>0.9147492625368731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9168405013067457</v>
+        <v>0.9067571007998165</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.63768717722471</v>
+        <v>89.50319639443248</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3766639741418961</v>
+        <v>0.2494479658801765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8663768717722471</v>
+        <v>0.8950319639443247</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8615872479779361</v>
+        <v>0.8934890981154411</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.89380530973452</v>
+        <v>92.77286135693215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1552201746758631</v>
+        <v>0.1752982659750463</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9389380530973451</v>
+        <v>0.9277286135693215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9381943703877177</v>
+        <v>0.9270809332443367</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.18739781485999</v>
+        <v>92.95019853112916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1885715921438532</v>
+        <v>0.183700221478163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9318739781485998</v>
+        <v>0.9295019853112916</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9308879325773732</v>
+        <v>0.9285233824186591</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.71259266948677</v>
+        <v>74.42555731450963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8562415880626455</v>
+        <v>0.7728248193433198</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7571259266948676</v>
+        <v>0.7442555731450964</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7401117737867926</v>
+        <v>0.7284638729720414</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88.52576579382175</v>
+        <v>90.32811702523378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3389268226843948</v>
+        <v>0.3906217072935154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8852576579382175</v>
+        <v>0.9032811702523379</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8798003113121808</v>
+        <v>0.8918720304854457</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.87020648967551</v>
+        <v>88.96755162241888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3821358326434469</v>
+        <v>0.2800057169011173</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8587020648967553</v>
+        <v>0.8896755162241888</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8571778125907435</v>
+        <v>0.8870689124369322</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.50442477876106</v>
+        <v>90.91445427728613</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2183250163524159</v>
+        <v>0.2127840116090132</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9150442477876106</v>
+        <v>0.9091445427728614</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9149798944280505</v>
+        <v>0.9089734070725217</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.35137847213211</v>
+        <v>90.14749262536873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2724411453789798</v>
+        <v>0.3214225569895158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.893513784721321</v>
+        <v>0.9014749262536874</v>
       </c>
       <c r="E10" t="n">
-        <v>0.889897514783123</v>
+        <v>0.8902036235562388</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.89692817411915</v>
+        <v>85.39823008849558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4220096279217008</v>
+        <v>0.4175723345319663</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8489692817411916</v>
+        <v>0.8539823008849557</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8415983003887364</v>
+        <v>0.8476024796675979</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.35693215339234</v>
+        <v>80.79663318886841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8598654591211622</v>
+        <v>0.8207109808989722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8135693215339233</v>
+        <v>0.8079663318886843</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8123800848809501</v>
+        <v>0.8026454168992434</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.88182423723389</v>
+        <v>76.46017699115045</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6451915833788614</v>
+        <v>0.8964658338518348</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7888182423723389</v>
+        <v>0.7646017699115044</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7768327342442882</v>
+        <v>0.7444506600060803</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.9203539823009</v>
+        <v>95.25073746312685</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1998034334421391</v>
+        <v>0.1242090170000059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.929203539823009</v>
+        <v>0.9525073746312683</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9292760789213428</v>
+        <v>0.9521210870835818</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.21533923303835</v>
+        <v>92.65486725663717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1521134150446111</v>
+        <v>0.1824851117239632</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9321533923303835</v>
+        <v>0.9265486725663716</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9302378549640213</v>
+        <v>0.9216979210593934</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.14159292035399</v>
+        <v>97.46312684365782</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05422648427690243</v>
+        <v>0.07108781100238655</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9814159292035398</v>
+        <v>0.9746312684365781</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9812944710948128</v>
+        <v>0.9742988802833121</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.39697575238539</v>
+        <v>88.63387514886229</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3543532427890144</v>
+        <v>0.357221123240736</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8839697575238538</v>
+        <v>0.8863387514886231</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8800731255763208</v>
+        <v>0.8803499204067096</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.13569321533923</v>
+        <v>86.52540246887949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3472140632414569</v>
+        <v>0.3299582677427679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8613569321533923</v>
+        <v>0.8652540246887949</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8571049246287753</v>
+        <v>0.8635075580433209</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.42209707696433</v>
+        <v>77.07627228609245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6206544214393943</v>
+        <v>0.6863943850932023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7442209707696433</v>
+        <v>0.7707627228609244</v>
       </c>
       <c r="E3" t="n">
-        <v>0.738534640254251</v>
+        <v>0.7547363355225871</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.2798813138522</v>
+        <v>89.58736667272208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4118092657377322</v>
+        <v>0.2509042727353517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.842798813138522</v>
+        <v>0.8958736667272207</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8419715605481463</v>
+        <v>0.8931967906954645</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.32322078910718</v>
+        <v>87.76987690204933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4360857933759689</v>
+        <v>0.3873142437466109</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8432322078910717</v>
+        <v>0.8776987690204934</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8409943786293349</v>
+        <v>0.8721380391135469</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.36504641043607</v>
+        <v>73.37788389172917</v>
       </c>
       <c r="C6" t="n">
-        <v>1.035168613392549</v>
+        <v>0.9829609289416112</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6936504641043608</v>
+        <v>0.7337788389172917</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6792343456421348</v>
+        <v>0.7125183258043541</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.34668119966435</v>
+        <v>85.38931997681641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4687007790120939</v>
+        <v>0.6750880976367626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8634668119966437</v>
+        <v>0.853893199768164</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8506151714558523</v>
+        <v>0.8385393465578727</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.93175546501269</v>
+        <v>76.05169594892689</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8283791251480579</v>
+        <v>0.8489423587627243</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7093175546501268</v>
+        <v>0.760516959489269</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6930366291521121</v>
+        <v>0.7399166992128204</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.36403429095408</v>
+        <v>81.3303748302321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4431437735028642</v>
+        <v>0.4919706754852086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8236403429095407</v>
+        <v>0.8133037483023209</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8236151255216901</v>
+        <v>0.8125754982310754</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.82420263151064</v>
+        <v>86.54901859012621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6080916526649769</v>
+        <v>0.4115183561458252</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7782420263151065</v>
+        <v>0.8654901859012621</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7566885106295331</v>
+        <v>0.8446473443826047</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.03262138945838</v>
+        <v>85.3689045752991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5177384619882408</v>
+        <v>0.455715591631694</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8103262138945839</v>
+        <v>0.8536890457529909</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8112364506678567</v>
+        <v>0.8487407561358475</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.21701744824782</v>
+        <v>79.46954558430437</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9535685164039023</v>
+        <v>0.9279482884355881</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7721701744824783</v>
+        <v>0.7946954558430436</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7627795627345103</v>
+        <v>0.7785629636725505</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.42789297485272</v>
+        <v>76.22626493308766</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6994599505525305</v>
+        <v>0.7481262576184236</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7442789297485273</v>
+        <v>0.7622626493308766</v>
       </c>
       <c r="E13" t="n">
-        <v>0.735768891725388</v>
+        <v>0.7507910781218763</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.52802359882006</v>
+        <v>91.68141592920354</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2909108095491926</v>
+        <v>0.2330584300170206</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8952802359882007</v>
+        <v>0.9168141592920354</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8931820372379733</v>
+        <v>0.914698433641451</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.17421430981237</v>
+        <v>90.02949852507375</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2626176125482743</v>
+        <v>0.3366126387807526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8917421430981237</v>
+        <v>0.9002949852507374</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8847716635790471</v>
+        <v>0.8816244335164166</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1087,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.3834548741771</v>
+        <v>97.84660766961652</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08531535194488242</v>
+        <v>0.07260206243481662</v>
       </c>
       <c r="D16" t="n">
-        <v>0.973834548741771</v>
+        <v>0.9784660766961653</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9738060659466958</v>
+        <v>0.9783042987584383</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1106,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.65038913254729</v>
+        <v>84.28529658561061</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5339238793668079</v>
+        <v>0.5226076570138907</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8165038913254729</v>
+        <v>0.842852965856106</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8095559972235534</v>
+        <v>0.8322998600940151</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.33535757229734</v>
+        <v>82.68523084109725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6171131680544931</v>
+        <v>0.5066108376859726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7733535757229734</v>
+        <v>0.8268523084109723</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7641328698978616</v>
+        <v>0.8251138798848301</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.04506959402764</v>
+        <v>72.96576960008305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8393795414672545</v>
+        <v>0.726212271520247</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7004506959402763</v>
+        <v>0.7296576960008305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6787423240629665</v>
+        <v>0.716723839765829</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.84068201282017</v>
+        <v>84.57607764773051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4570554773012797</v>
+        <v>0.4424765137567495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8284068201282018</v>
+        <v>0.8457607764773052</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8258814837845868</v>
+        <v>0.8461515544101816</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1228,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.049221879082</v>
+        <v>83.02563170961687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5466755614926417</v>
+        <v>0.4950568342736612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.80049221879082</v>
+        <v>0.8302563170961687</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7908560159345548</v>
+        <v>0.8277431283523201</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.87692800110727</v>
+        <v>65.42989126203514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9864083883915251</v>
+        <v>1.525941277691163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7287692800110728</v>
+        <v>0.6542989126203513</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7193888803863193</v>
+        <v>0.624049378861854</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.01853822264898</v>
+        <v>83.69821538248601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5335992608995488</v>
+        <v>0.5288875666446984</v>
       </c>
       <c r="D7" t="n">
-        <v>0.83018538222649</v>
+        <v>0.8369821538248601</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8203906551094047</v>
+        <v>0.8249794239327555</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.04140174222961</v>
+        <v>67.03033763267848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.914458147684733</v>
+        <v>1.232614698881904</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6604140174222961</v>
+        <v>0.6703033763267848</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6560459625616393</v>
+        <v>0.6634573874154031</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.91790586423758</v>
+        <v>70.25778769712541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5172391764509181</v>
+        <v>0.8565672288338343</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7991790586423757</v>
+        <v>0.7025778769712541</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7998036303496324</v>
+        <v>0.6987380224555746</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.21630809955103</v>
+        <v>78.0900353809289</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6417207146063447</v>
+        <v>0.6637811532244087</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7521630809955103</v>
+        <v>0.780900353809289</v>
       </c>
       <c r="E10" t="n">
-        <v>0.740530895031384</v>
+        <v>0.7557499646654661</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.73710845249526</v>
+        <v>75.54814488014603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.531198975785325</v>
+        <v>0.7709696442824983</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7973710845249526</v>
+        <v>0.7554814488014603</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7986553832951148</v>
+        <v>0.7428923464660396</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.08015640273705</v>
+        <v>71.50771200442911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9477151839761063</v>
+        <v>1.108873841705887</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7608015640273705</v>
+        <v>0.715077120044291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7480886148982965</v>
+        <v>0.7098437252294967</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.32651666536908</v>
+        <v>72.60953814479365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9766946324278252</v>
+        <v>0.8832181790222723</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6532651666536908</v>
+        <v>0.7260953814479364</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6308509937214106</v>
+        <v>0.7073686514233819</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1399,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.78166766148496</v>
+        <v>87.43518542547946</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4738392695008467</v>
+        <v>0.306613045053867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8078166766148496</v>
+        <v>0.8743518542547946</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8044394682836151</v>
+        <v>0.8733518600034408</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.34825560774748</v>
+        <v>85.34459640654332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2899469376166356</v>
+        <v>0.4101955203562587</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8834825560774748</v>
+        <v>0.8534459640654332</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8812574956284056</v>
+        <v>0.8418426222074162</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.23026150745248</v>
+        <v>97.26009740568689</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06634155378463523</v>
+        <v>0.08456705942129095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9823026150745248</v>
+        <v>0.9726009740568691</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9822657911117594</v>
+        <v>0.9727242692155409</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.38969195235252</v>
+        <v>78.49761676139067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6226257326293408</v>
+        <v>0.7028390448236476</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7838969195235255</v>
+        <v>0.7849761676139068</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7760886976037968</v>
+        <v>0.775382003619302</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.93050112890251</v>
+        <v>64.7443316983711</v>
       </c>
       <c r="C2" t="n">
-        <v>1.134870211035013</v>
+        <v>0.8910136741896471</v>
       </c>
       <c r="D2" t="n">
-        <v>0.559305011289025</v>
+        <v>0.6474433169837109</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5430773841129438</v>
+        <v>0.6449797672819355</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.19110891962733</v>
+        <v>58.35318644624954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9483104693392912</v>
+        <v>1.03969363309443</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6219110891962734</v>
+        <v>0.5835318644624954</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5954980549322573</v>
+        <v>0.5738364436518136</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.90832100623707</v>
+        <v>68.96227476016227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7036556551853816</v>
+        <v>0.757233772178491</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7190832100623707</v>
+        <v>0.6896227476016229</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7133340991563613</v>
+        <v>0.6847431310379711</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.5364233254613</v>
+        <v>71.36757238384415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7429204620420933</v>
+        <v>0.8901482459157706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7053642332546129</v>
+        <v>0.7136757238384415</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7005074039229665</v>
+        <v>0.6991442452431649</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.75955674357044</v>
+        <v>58.20898104654884</v>
       </c>
       <c r="C6" t="n">
-        <v>1.234844489023089</v>
+        <v>1.158826300874352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6475955674357045</v>
+        <v>0.5820898104654885</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6263605872852518</v>
+        <v>0.5571473727159379</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.95826953520358</v>
+        <v>73.98480955717611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8263417899608612</v>
+        <v>0.7067728731781244</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7595826953520359</v>
+        <v>0.739848095571761</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7426403273817311</v>
+        <v>0.7286495167212359</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1635,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.22009705966315</v>
+        <v>57.00801910051125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9391832518080869</v>
+        <v>1.236419508047402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6322009705966314</v>
+        <v>0.5700801910051125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6270237256690225</v>
+        <v>0.5407393308486473</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.11701658318843</v>
+        <v>61.10416180070762</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9643189970403909</v>
+        <v>1.023034970959028</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6711701658318844</v>
+        <v>0.6110416180070761</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6581852200910251</v>
+        <v>0.6046859987910913</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.73370011851314</v>
+        <v>62.41931158574037</v>
       </c>
       <c r="C10" t="n">
-        <v>1.287866538266341</v>
+        <v>1.038889131943385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5573370011851313</v>
+        <v>0.6241931158574037</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5328218978273729</v>
+        <v>0.6118361368132291</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1692,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.89703198124552</v>
+        <v>63.45158695144421</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8289768991991877</v>
+        <v>0.9239853611215949</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6689703198124551</v>
+        <v>0.6345158695144422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6642518409362926</v>
+        <v>0.6239414299659783</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.98951548023771</v>
+        <v>69.46323065078418</v>
       </c>
       <c r="C12" t="n">
-        <v>1.051989628871282</v>
+        <v>0.9475869696587325</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6798951548023772</v>
+        <v>0.6946323065078418</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6696863946599911</v>
+        <v>0.6869464395437042</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.47044524606614</v>
+        <v>50.16193911712039</v>
       </c>
       <c r="C13" t="n">
-        <v>1.09477966055274</v>
+        <v>1.154885731637478</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5347044524606615</v>
+        <v>0.5016193911712039</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5149792041000733</v>
+        <v>0.4897365398816491</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.99697229214786</v>
+        <v>74.54908779487712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7438504353165627</v>
+        <v>0.6116074971854687</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6999697229214785</v>
+        <v>0.7454908779487712</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6735455113889057</v>
+        <v>0.7392555415019165</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.31351482279258</v>
+        <v>78.69246273756694</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4339550099757616</v>
+        <v>0.4498707975998211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8231351482279259</v>
+        <v>0.7869246273756694</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8178814588907191</v>
+        <v>0.7802922610442091</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1787,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.43930310815838</v>
+        <v>93.17070216870388</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1883818631215642</v>
+        <v>0.2083017943795615</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9343930310815838</v>
+        <v>0.9317070216870388</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9340630872964895</v>
+        <v>0.9315696384744117</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1806,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.09745182340102</v>
+        <v>67.04277718665386</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8749496907158433</v>
+        <v>0.8692180174642191</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6809745182340101</v>
+        <v>0.6704277718665386</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6675904131767603</v>
+        <v>0.6598335862344598</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.8327407676537</v>
+        <v>47.89107172207372</v>
       </c>
       <c r="C2" t="n">
-        <v>1.715389544765155</v>
+        <v>1.535973787556092</v>
       </c>
       <c r="D2" t="n">
-        <v>0.448327407676537</v>
+        <v>0.4789107172207371</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4051664904579247</v>
+        <v>0.440769951132006</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1890,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.06254379363143</v>
+        <v>64.26924108340037</v>
       </c>
       <c r="C3" t="n">
-        <v>1.167144246647755</v>
+        <v>0.978102852155765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6006254379363143</v>
+        <v>0.6426924108340037</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5736808278250237</v>
+        <v>0.6318616307569138</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1909,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.16522634278842</v>
+        <v>62.50365487590723</v>
       </c>
       <c r="C4" t="n">
-        <v>1.157818398873011</v>
+        <v>1.115779206405083</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6016522634278842</v>
+        <v>0.6250365487590723</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5796027536564116</v>
+        <v>0.6057094549546599</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.08213738873174</v>
+        <v>65.99762973728147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9937432757268349</v>
+        <v>1.073898814121882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6508213738873174</v>
+        <v>0.6599762973728146</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6386145362308386</v>
+        <v>0.6221478180566</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1947,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.80357961574062</v>
+        <v>54.56569693509459</v>
       </c>
       <c r="C6" t="n">
-        <v>1.318744141608477</v>
+        <v>1.489385148882866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5380357961574063</v>
+        <v>0.545656969350946</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5213574335324378</v>
+        <v>0.5256118100186014</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.52108582254172</v>
+        <v>72.53990086419432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9418144067128498</v>
+        <v>0.8651002903779348</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6752108582254172</v>
+        <v>0.7253990086419433</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6622995667656618</v>
+        <v>0.70057412955142</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.14577115718994</v>
+        <v>44.86466145900916</v>
       </c>
       <c r="C8" t="n">
-        <v>1.387122939527035</v>
+        <v>1.805985028296709</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5114577115718995</v>
+        <v>0.4486466145900916</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4647853554839493</v>
+        <v>0.4020418475385423</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.96169517037345</v>
+        <v>58.86019775257572</v>
       </c>
       <c r="C9" t="n">
-        <v>1.437767819936077</v>
+        <v>1.129151596377293</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5196169517037345</v>
+        <v>0.5886019775257572</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4941295761414648</v>
+        <v>0.5778535461804788</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54.99381482538777</v>
+        <v>56.82756771252347</v>
       </c>
       <c r="C10" t="n">
-        <v>1.302262523273627</v>
+        <v>1.246420188993216</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5499381482538777</v>
+        <v>0.5682756771252346</v>
       </c>
       <c r="E10" t="n">
-        <v>0.529123215021541</v>
+        <v>0.5430497752135913</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.00661770430541</v>
+        <v>60.95563110407529</v>
       </c>
       <c r="C11" t="n">
-        <v>1.308010473536948</v>
+        <v>1.183991455938667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5500661770430539</v>
+        <v>0.6095563110407529</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5229022615989637</v>
+        <v>0.57407922656633</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63.03670446976184</v>
+        <v>63.94579537885276</v>
       </c>
       <c r="C12" t="n">
-        <v>1.253351090693225</v>
+        <v>1.056480045989156</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6303670446976185</v>
+        <v>0.6394579537885277</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6111119290208564</v>
+        <v>0.617154044411046</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.50897499113314</v>
+        <v>49.28822913693025</v>
       </c>
       <c r="C13" t="n">
-        <v>1.421879968047142</v>
+        <v>1.290856849650542</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4750897499113315</v>
+        <v>0.4928822913693026</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4507054971537944</v>
+        <v>0.4654029749063057</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2099,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.5129888666857</v>
+        <v>59.8801027690551</v>
       </c>
       <c r="C14" t="n">
-        <v>0.905646800994873</v>
+        <v>1.163669688875477</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7151298886668569</v>
+        <v>0.5988010276905509</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6853816919860846</v>
+        <v>0.5457557874296637</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2118,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.44710594382305</v>
+        <v>76.03275114836633</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6188357627019286</v>
+        <v>0.5610846641551082</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7544710594382305</v>
+        <v>0.7603275114836634</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7396811512410406</v>
+        <v>0.7454030072977796</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2137,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.51907888476543</v>
+        <v>84.21180114014827</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5239821674302221</v>
+        <v>0.5586324516504344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8551907888476544</v>
+        <v>0.8421180114014828</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8446119949984252</v>
+        <v>0.8286520720518377</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2156,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.50667104963423</v>
+        <v>61.50892885463254</v>
       </c>
       <c r="C17" t="n">
-        <v>1.163567570698344</v>
+        <v>1.136967471295082</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6050667104963422</v>
+        <v>0.6150892885463254</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5815436187409613</v>
+        <v>0.5884044717377184</v>
       </c>
     </row>
   </sheetData>
